--- a/data/embodied_emissions_systems.xlsx
+++ b/data/embodied_emissions_systems.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="51">
   <si>
     <t>Category</t>
   </si>
@@ -160,6 +160,18 @@
   </si>
   <si>
     <t>Gefühl</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>kgCO2-eq/egal</t>
+  </si>
+  <si>
+    <t>Dummy for when a System "None" is chosen</t>
+  </si>
+  <si>
+    <t>egal</t>
   </si>
 </sst>
 </file>
@@ -477,10 +489,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -895,6 +907,32 @@
         <v>46</v>
       </c>
     </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16" t="s">
+        <v>47</v>
+      </c>
+      <c r="F16" t="s">
+        <v>21</v>
+      </c>
+      <c r="G16" t="s">
+        <v>49</v>
+      </c>
+      <c r="H16">
+        <v>30</v>
+      </c>
+      <c r="I16" t="s">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/data/embodied_emissions_systems.xlsx
+++ b/data/embodied_emissions_systems.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11108"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A2C4F5E-9342-C84F-99B5-066036D02FEF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="22260" windowHeight="14220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="22260" windowHeight="14220"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -202,7 +201,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -520,24 +519,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.6640625" customWidth="1"/>
-    <col min="2" max="2" width="40.83203125" customWidth="1"/>
-    <col min="3" max="3" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="13.1640625" customWidth="1"/>
-    <col min="7" max="7" width="17.33203125" customWidth="1"/>
-    <col min="8" max="12" width="15.1640625" customWidth="1"/>
+    <col min="1" max="1" width="24.7109375" customWidth="1"/>
+    <col min="2" max="2" width="40.85546875" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" customWidth="1"/>
+    <col min="7" max="7" width="17.28515625" customWidth="1"/>
+    <col min="8" max="12" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -572,7 +571,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -604,7 +603,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -636,7 +635,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -674,7 +673,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -703,7 +702,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -735,7 +734,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -768,7 +767,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -800,7 +799,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -832,7 +831,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -864,7 +863,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -899,7 +898,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -931,7 +930,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -963,7 +962,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -995,7 +994,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -1006,13 +1005,15 @@
         <v>27</v>
       </c>
       <c r="D15">
-        <v>5.8</v>
+        <f>25.9/4+12/4</f>
+        <v>9.4749999999999996</v>
       </c>
       <c r="E15" t="s">
         <v>52</v>
       </c>
       <c r="F15">
-        <v>14480</v>
+        <f>64800/4+45200/4</f>
+        <v>27500</v>
       </c>
       <c r="G15" t="s">
         <v>7</v>
@@ -1030,7 +1031,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -1047,7 +1048,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>38</v>
       </c>

--- a/data/embodied_emissions_systems.xlsx
+++ b/data/embodied_emissions_systems.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11108"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A2C4F5E-9342-C84F-99B5-066036D02FEF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="22260" windowHeight="14220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="22260" windowHeight="14220"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -163,9 +162,6 @@
     <t>SIA 2032 (2020)</t>
   </si>
   <si>
-    <t>DH</t>
-  </si>
-  <si>
     <t>overestimation, as there is only a "Übergabestation" and no burner, hence only half of the embodied emission of a burner is counted</t>
   </si>
   <si>
@@ -197,12 +193,15 @@
   </si>
   <si>
     <t>Value</t>
+  </si>
+  <si>
+    <t>district</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -520,24 +519,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.6640625" customWidth="1"/>
-    <col min="2" max="2" width="40.83203125" customWidth="1"/>
-    <col min="3" max="3" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="13.1640625" customWidth="1"/>
-    <col min="7" max="7" width="17.33203125" customWidth="1"/>
-    <col min="8" max="12" width="15.1640625" customWidth="1"/>
+    <col min="1" max="1" width="24.6328125" customWidth="1"/>
+    <col min="2" max="2" width="40.81640625" customWidth="1"/>
+    <col min="3" max="3" width="20.6328125" customWidth="1"/>
+    <col min="4" max="4" width="13.1796875" customWidth="1"/>
+    <col min="7" max="7" width="17.36328125" customWidth="1"/>
+    <col min="8" max="12" width="15.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -545,16 +544,16 @@
         <v>12</v>
       </c>
       <c r="C1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" t="s">
         <v>54</v>
       </c>
-      <c r="D1" t="s">
-        <v>55</v>
-      </c>
       <c r="E1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G1" t="s">
         <v>1</v>
@@ -572,7 +571,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -586,7 +585,7 @@
         <v>51.2</v>
       </c>
       <c r="E2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F2">
         <v>120</v>
@@ -604,7 +603,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -618,7 +617,7 @@
         <v>363.75</v>
       </c>
       <c r="E3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F3">
         <v>682500</v>
@@ -636,7 +635,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -651,7 +650,7 @@
         <v>896.5</v>
       </c>
       <c r="E4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F4">
         <f>527500+768900</f>
@@ -674,7 +673,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -688,7 +687,7 @@
         <v>1.44</v>
       </c>
       <c r="E5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G5" t="s">
         <v>9</v>
@@ -703,7 +702,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -717,7 +716,7 @@
         <v>51.2</v>
       </c>
       <c r="E6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F6">
         <v>120</v>
@@ -735,12 +734,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="C7" t="s">
         <v>8</v>
@@ -750,16 +749,16 @@
         <v>25.6</v>
       </c>
       <c r="E7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F7">
         <v>60</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J7">
         <v>20</v>
@@ -768,7 +767,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -782,7 +781,7 @@
         <v>2080</v>
       </c>
       <c r="E8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F8">
         <v>3170000</v>
@@ -800,7 +799,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -814,7 +813,7 @@
         <v>7.62</v>
       </c>
       <c r="E9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F9">
         <v>15000</v>
@@ -832,7 +831,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -846,7 +845,7 @@
         <v>3.07</v>
       </c>
       <c r="E10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F10">
         <v>5480</v>
@@ -864,7 +863,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -878,7 +877,7 @@
         <v>5.0599999999999996</v>
       </c>
       <c r="E11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F11">
         <v>4040</v>
@@ -899,7 +898,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -913,7 +912,7 @@
         <v>5.46</v>
       </c>
       <c r="E12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F12">
         <v>10200</v>
@@ -931,7 +930,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -945,7 +944,7 @@
         <v>5.77</v>
       </c>
       <c r="E13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F13">
         <v>39600</v>
@@ -963,7 +962,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -977,7 +976,7 @@
         <v>1.7</v>
       </c>
       <c r="E14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F14">
         <v>2940</v>
@@ -995,7 +994,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -1009,7 +1008,7 @@
         <v>5.8</v>
       </c>
       <c r="E15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F15">
         <v>14480</v>
@@ -1030,7 +1029,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -1047,7 +1046,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
         <v>38</v>
       </c>
@@ -1058,7 +1057,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F17">
         <v>0</v>

--- a/data/embodied_emissions_systems.xlsx
+++ b/data/embodied_emissions_systems.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="22260" windowHeight="14220"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="22260" windowHeight="14220"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -28,14 +28,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="74">
   <si>
     <t>Category</t>
   </si>
   <si>
-    <t>Source</t>
-  </si>
-  <si>
     <t>ASHP</t>
   </si>
   <si>
@@ -57,9 +54,6 @@
     <t>kgCO2-eq/kW</t>
   </si>
   <si>
-    <t>ecoinvent</t>
-  </si>
-  <si>
     <t>Emission</t>
   </si>
   <si>
@@ -69,9 +63,6 @@
     <t>Name</t>
   </si>
   <si>
-    <t>decription</t>
-  </si>
-  <si>
     <t>Ventilation</t>
   </si>
   <si>
@@ -162,12 +153,6 @@
     <t>SIA 2032 (2020)</t>
   </si>
   <si>
-    <t>overestimation, as there is only a "Übergabestation" and no burner, hence only half of the embodied emission of a burner is counted</t>
-  </si>
-  <si>
-    <t>KBOB 2016, own estimation: Fernwärmenetz wichtig in ZH</t>
-  </si>
-  <si>
     <t>Value_UBP</t>
   </si>
   <si>
@@ -195,14 +180,98 @@
     <t>Value</t>
   </si>
   <si>
+    <t>Wood</t>
+  </si>
+  <si>
     <t>district</t>
+  </si>
+  <si>
+    <t>Oil</t>
+  </si>
+  <si>
+    <t>KBOB 2016, based on radiators with 0.07kW/m2 heating power</t>
+  </si>
+  <si>
+    <t>Dim_Cost</t>
+  </si>
+  <si>
+    <t>Cost</t>
+  </si>
+  <si>
+    <t>Source Emissions</t>
+  </si>
+  <si>
+    <t>Source Cost</t>
+  </si>
+  <si>
+    <t>description emissions</t>
+  </si>
+  <si>
+    <t>description cost</t>
+  </si>
+  <si>
+    <t>CHF/kW</t>
+  </si>
+  <si>
+    <t>CHF/m2</t>
+  </si>
+  <si>
+    <t>CHF</t>
+  </si>
+  <si>
+    <t>KBOB 2016, own estimation</t>
+  </si>
+  <si>
+    <t>overestimation, as there is only a "Übergabestation" and no burner, hence only half of the embodied emission of a burner(assumption) is counted</t>
+  </si>
+  <si>
+    <t>Thomas Gürber, Semester Projekt</t>
+  </si>
+  <si>
+    <t>per EBF, series of looped pipes connected to a warm water boiler.
+On https://comfortfloor.ch/lp/bodenheizung-kosten/, 180CHF/m2 is listed</t>
+  </si>
+  <si>
+    <t>included in floor heating /radiator</t>
+  </si>
+  <si>
+    <t>THIS DATA IS INTERPOLATED</t>
+  </si>
+  <si>
+    <t>swissolar, BAPV</t>
+  </si>
+  <si>
+    <t>Thomas Gürber, Semester Projekt and https://www.ofri.ch/kosten/radiator-montieren</t>
+  </si>
+  <si>
+    <r>
+      <t>per EBF, comfort ventilation</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> with heat recovery function</t>
+    </r>
+  </si>
+  <si>
+    <t>T. Gürber, D. Sigrist, WWF Heizungs-spreadsheet, Heizkostenrechner https://erneuerbarheizen.ch/heizkostenrechner/, energie 360°</t>
+  </si>
+  <si>
+    <t>per piece, wall-mounted radiator: 430 CHF. Assumption that per 15m2 one radiator is needed
+for demontage and montage, ca. 1000 per piece CHF https://www.ofri.ch/kosten/radiator-montieren</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -216,6 +285,35 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -225,7 +323,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -233,13 +331,74 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -520,563 +679,829 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:O20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.6328125" customWidth="1"/>
-    <col min="2" max="2" width="40.81640625" customWidth="1"/>
-    <col min="3" max="3" width="20.6328125" customWidth="1"/>
-    <col min="4" max="4" width="13.1796875" customWidth="1"/>
-    <col min="7" max="7" width="17.36328125" customWidth="1"/>
-    <col min="8" max="12" width="15.1796875" customWidth="1"/>
+    <col min="1" max="1" width="24.7109375" customWidth="1"/>
+    <col min="2" max="2" width="33.5703125" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" customWidth="1"/>
+    <col min="7" max="7" width="11.85546875" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" customWidth="1"/>
+    <col min="9" max="10" width="11.140625" customWidth="1"/>
+    <col min="11" max="11" width="15.28515625" customWidth="1"/>
+    <col min="12" max="12" width="11.140625" customWidth="1"/>
+    <col min="13" max="13" width="18.140625" customWidth="1"/>
+    <col min="14" max="14" width="10" customWidth="1"/>
+    <col min="15" max="16" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="B1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="J1" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="E1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J1" t="s">
-        <v>33</v>
-      </c>
-      <c r="K1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="K1" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="O1" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C2" t="s">
-        <v>8</v>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="D2">
         <v>51.2</v>
       </c>
       <c r="E2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="F2">
         <v>120</v>
       </c>
       <c r="G2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="3"/>
+      <c r="J2" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="K2">
+        <v>2080</v>
+      </c>
+      <c r="L2" t="s">
+        <v>72</v>
+      </c>
+      <c r="N2" s="4">
+        <v>20</v>
+      </c>
+      <c r="O2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2">
+      <c r="D3">
+        <v>51.2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3">
+        <v>120</v>
+      </c>
+      <c r="G3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="3"/>
+      <c r="J3" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="K3">
+        <v>2080</v>
+      </c>
+      <c r="L3" t="s">
+        <v>72</v>
+      </c>
+      <c r="N3" s="4">
         <v>20</v>
       </c>
-      <c r="K2" t="s">
+      <c r="O3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4">
+        <v>363.75</v>
+      </c>
+      <c r="E4" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="F4">
+        <v>682500</v>
+      </c>
+      <c r="G4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="3"/>
+      <c r="J4" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="K4">
+        <v>2250</v>
+      </c>
+      <c r="L4" t="s">
+        <v>72</v>
+      </c>
+      <c r="N4" s="4">
+        <v>20</v>
+      </c>
+      <c r="O4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3">
-        <v>363.75</v>
-      </c>
-      <c r="E3" t="s">
-        <v>48</v>
-      </c>
-      <c r="F3">
-        <v>682500</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="C5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J3">
-        <v>20</v>
-      </c>
-      <c r="K3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4">
+      <c r="D5">
         <f>272.5 + 624</f>
         <v>896.5</v>
       </c>
-      <c r="E4" t="s">
-        <v>48</v>
-      </c>
-      <c r="F4">
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5">
         <f>527500+768900</f>
         <v>1296400</v>
       </c>
-      <c r="G4" t="s">
-        <v>42</v>
-      </c>
-      <c r="H4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J4" s="1">
+      <c r="G5" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="K5">
+        <v>3890</v>
+      </c>
+      <c r="L5" t="s">
+        <v>72</v>
+      </c>
+      <c r="N5" s="8">
         <f>272.5/896.5*20+624/896.5*40</f>
         <v>33.920803123257109</v>
       </c>
-      <c r="K4" t="s">
+      <c r="O5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="1">
+        <f>D14/0.07</f>
+        <v>77.999999999999986</v>
+      </c>
+      <c r="E6" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5">
-        <v>1.44</v>
-      </c>
-      <c r="E5" t="s">
-        <v>48</v>
-      </c>
-      <c r="G5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H5" t="s">
-        <v>17</v>
-      </c>
-      <c r="J5">
+      <c r="F6" s="1">
+        <f>F14/0.07</f>
+        <v>145714.28571428571</v>
+      </c>
+      <c r="G6" t="s">
+        <v>53</v>
+      </c>
+      <c r="H6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" s="3"/>
+      <c r="J6" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="K6" s="13">
+        <v>810</v>
+      </c>
+      <c r="L6" t="s">
+        <v>72</v>
+      </c>
+      <c r="N6" s="4">
         <v>20</v>
       </c>
-      <c r="K5" t="s">
+      <c r="O6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7">
+        <v>51.2</v>
+      </c>
+      <c r="E7" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6">
+      <c r="F7">
+        <v>120</v>
+      </c>
+      <c r="G7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" s="3"/>
+      <c r="J7" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="K7" s="13">
+        <v>1190</v>
+      </c>
+      <c r="L7" t="s">
+        <v>72</v>
+      </c>
+      <c r="N7" s="4">
+        <v>20</v>
+      </c>
+      <c r="O7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8">
         <v>51.2</v>
       </c>
-      <c r="E6" t="s">
-        <v>48</v>
-      </c>
-      <c r="F6">
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8">
         <v>120</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" s="3"/>
+      <c r="J8" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="K8" s="13">
+        <v>1030</v>
+      </c>
+      <c r="L8" t="s">
+        <v>72</v>
+      </c>
+      <c r="N8" s="4">
+        <v>20</v>
+      </c>
+      <c r="O8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J6">
-        <v>20</v>
-      </c>
-      <c r="K6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7">
+      <c r="D9">
         <f xml:space="preserve"> 0.5* 51.2</f>
         <v>25.6</v>
       </c>
-      <c r="E7" t="s">
-        <v>48</v>
-      </c>
-      <c r="F7">
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9">
         <v>60</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G9" t="s">
+        <v>63</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="J9" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="K9">
+        <v>1550</v>
+      </c>
+      <c r="L9" t="s">
+        <v>72</v>
+      </c>
+      <c r="N9" s="4">
+        <v>20</v>
+      </c>
+      <c r="O9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10">
+        <v>2080</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10">
+        <v>3170000</v>
+      </c>
+      <c r="G10" t="s">
+        <v>6</v>
+      </c>
+      <c r="H10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" s="3"/>
+      <c r="J10" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="K10" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="L10" t="s">
+        <v>69</v>
+      </c>
+      <c r="N10" s="4">
+        <v>30</v>
+      </c>
+      <c r="O10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11">
+        <v>7.62</v>
+      </c>
+      <c r="E11" t="s">
         <v>45</v>
       </c>
-      <c r="I7" t="s">
-        <v>44</v>
-      </c>
-      <c r="J7">
+      <c r="F11">
+        <v>15000</v>
+      </c>
+      <c r="G11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I11" s="3"/>
+      <c r="J11" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="M11" t="s">
         <v>20</v>
       </c>
-      <c r="K7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="N11" s="4">
         <v>30</v>
       </c>
-      <c r="C8" t="s">
+      <c r="O11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12">
+        <v>3.07</v>
+      </c>
+      <c r="E12" t="s">
+        <v>45</v>
+      </c>
+      <c r="F12">
+        <v>5480</v>
+      </c>
+      <c r="G12" t="s">
+        <v>6</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J12" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="M12" t="s">
+        <v>20</v>
+      </c>
+      <c r="N12" s="4">
+        <v>30</v>
+      </c>
+      <c r="O12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D8">
-        <v>2080</v>
-      </c>
-      <c r="E8" t="s">
-        <v>49</v>
-      </c>
-      <c r="F8">
-        <v>3170000</v>
-      </c>
-      <c r="G8" t="s">
-        <v>7</v>
-      </c>
-      <c r="H8" t="s">
-        <v>17</v>
-      </c>
-      <c r="J8">
+      <c r="C13" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13">
+        <v>5.0599999999999996</v>
+      </c>
+      <c r="E13" t="s">
+        <v>45</v>
+      </c>
+      <c r="F13">
+        <v>4040</v>
+      </c>
+      <c r="G13" t="s">
+        <v>6</v>
+      </c>
+      <c r="H13" t="s">
+        <v>14</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J13" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="K13">
+        <v>150</v>
+      </c>
+      <c r="L13" t="s">
+        <v>65</v>
+      </c>
+      <c r="M13" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="N13" s="4">
         <v>30</v>
       </c>
-      <c r="K8" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+      <c r="O13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14">
+        <v>5.46</v>
+      </c>
+      <c r="E14" t="s">
+        <v>45</v>
+      </c>
+      <c r="F14">
+        <v>10200</v>
+      </c>
+      <c r="G14" t="s">
         <v>6</v>
       </c>
-      <c r="B9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="I14" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J14" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="K14" s="1">
+        <f>(430+1000)/15</f>
+        <v>95.333333333333329</v>
+      </c>
+      <c r="L14" t="s">
+        <v>70</v>
+      </c>
+      <c r="M14" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="N14" s="4">
+        <v>30</v>
+      </c>
+      <c r="O14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15">
+        <v>5.77</v>
+      </c>
+      <c r="E15" t="s">
+        <v>45</v>
+      </c>
+      <c r="F15">
+        <v>39600</v>
+      </c>
+      <c r="G15" t="s">
+        <v>6</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J15" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="M15" t="s">
+        <v>20</v>
+      </c>
+      <c r="N15" s="4">
+        <v>30</v>
+      </c>
+      <c r="O15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16">
+        <v>1.7</v>
+      </c>
+      <c r="E16" t="s">
+        <v>45</v>
+      </c>
+      <c r="F16">
+        <v>2940</v>
+      </c>
+      <c r="G16" t="s">
+        <v>6</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J16" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="M16" t="s">
+        <v>20</v>
+      </c>
+      <c r="N16" s="4">
+        <v>30</v>
+      </c>
+      <c r="O16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D9">
-        <v>7.62</v>
-      </c>
-      <c r="E9" t="s">
-        <v>50</v>
-      </c>
-      <c r="F9">
-        <v>15000</v>
-      </c>
-      <c r="G9" t="s">
-        <v>7</v>
-      </c>
-      <c r="H9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J9">
+      <c r="B17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17">
+        <v>5.8</v>
+      </c>
+      <c r="E17" t="s">
+        <v>46</v>
+      </c>
+      <c r="F17">
+        <v>14480</v>
+      </c>
+      <c r="G17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H17" t="s">
+        <v>14</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J17" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="K17">
+        <v>240</v>
+      </c>
+      <c r="L17" t="s">
+        <v>65</v>
+      </c>
+      <c r="M17" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="N17" s="4">
         <v>30</v>
       </c>
-      <c r="K9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="O17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D10">
-        <v>3.07</v>
-      </c>
-      <c r="E10" t="s">
-        <v>50</v>
-      </c>
-      <c r="F10">
-        <v>5480</v>
-      </c>
-      <c r="G10" t="s">
-        <v>7</v>
-      </c>
-      <c r="I10" t="s">
-        <v>21</v>
-      </c>
-      <c r="J10">
+      <c r="B18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="4"/>
+      <c r="H18" t="s">
+        <v>14</v>
+      </c>
+      <c r="I18" s="3"/>
+      <c r="N18" s="4">
         <v>30</v>
       </c>
-      <c r="K10" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11">
-        <v>5.0599999999999996</v>
-      </c>
-      <c r="E11" t="s">
-        <v>50</v>
-      </c>
-      <c r="F11">
-        <v>4040</v>
-      </c>
-      <c r="G11" t="s">
-        <v>7</v>
-      </c>
-      <c r="H11" t="s">
-        <v>17</v>
-      </c>
-      <c r="I11" t="s">
-        <v>23</v>
-      </c>
-      <c r="J11">
+      <c r="O18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19" t="s">
+        <v>47</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19" t="s">
+        <v>35</v>
+      </c>
+      <c r="H19" t="s">
+        <v>14</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J19" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19" t="s">
+        <v>35</v>
+      </c>
+      <c r="N19" s="4">
         <v>30</v>
       </c>
-      <c r="K11" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12">
-        <v>5.46</v>
-      </c>
-      <c r="E12" t="s">
-        <v>50</v>
-      </c>
-      <c r="F12">
-        <v>10200</v>
-      </c>
-      <c r="G12" t="s">
-        <v>7</v>
-      </c>
-      <c r="I12" t="s">
-        <v>23</v>
-      </c>
-      <c r="J12">
-        <v>30</v>
-      </c>
-      <c r="K12" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13">
-        <v>5.77</v>
-      </c>
-      <c r="E13" t="s">
-        <v>50</v>
-      </c>
-      <c r="F13">
-        <v>39600</v>
-      </c>
-      <c r="G13" t="s">
-        <v>7</v>
-      </c>
-      <c r="I13" t="s">
-        <v>23</v>
-      </c>
-      <c r="J13">
-        <v>30</v>
-      </c>
-      <c r="K13" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14">
-        <v>1.7</v>
-      </c>
-      <c r="E14" t="s">
-        <v>50</v>
-      </c>
-      <c r="F14">
-        <v>2940</v>
-      </c>
-      <c r="G14" t="s">
-        <v>7</v>
-      </c>
-      <c r="I14" t="s">
-        <v>23</v>
-      </c>
-      <c r="J14">
-        <v>30</v>
-      </c>
-      <c r="K14" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15">
-        <v>5.8</v>
-      </c>
-      <c r="E15" t="s">
-        <v>51</v>
-      </c>
-      <c r="F15">
-        <v>14480</v>
-      </c>
-      <c r="G15" t="s">
-        <v>7</v>
-      </c>
-      <c r="H15" t="s">
-        <v>17</v>
-      </c>
-      <c r="I15" t="s">
-        <v>28</v>
-      </c>
-      <c r="J15">
-        <v>30</v>
-      </c>
-      <c r="K15" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>16</v>
-      </c>
-      <c r="H16" t="s">
-        <v>17</v>
-      </c>
-      <c r="J16">
-        <v>30</v>
-      </c>
-      <c r="K16" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B17" t="s">
+      <c r="O19" t="s">
         <v>38</v>
       </c>
-      <c r="C17" t="s">
-        <v>39</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17" t="s">
-        <v>52</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="G17" t="s">
-        <v>38</v>
-      </c>
-      <c r="H17" t="s">
-        <v>17</v>
-      </c>
-      <c r="I17" t="s">
-        <v>40</v>
-      </c>
-      <c r="J17">
-        <v>30</v>
-      </c>
-      <c r="K17" t="s">
-        <v>41</v>
-      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/data/embodied_emissions_systems.xlsx
+++ b/data/embodied_emissions_systems.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="73">
   <si>
     <t>Category</t>
   </si>
@@ -223,9 +223,6 @@
   </si>
   <si>
     <t>overestimation, as there is only a "Übergabestation" and no burner, hence only half of the embodied emission of a burner(assumption) is counted</t>
-  </si>
-  <si>
-    <t>Thomas Gürber, Semester Projekt</t>
   </si>
   <si>
     <t>per EBF, series of looped pipes connected to a warm water boiler.
@@ -239,9 +236,6 @@
   </si>
   <si>
     <t>swissolar, BAPV</t>
-  </si>
-  <si>
-    <t>Thomas Gürber, Semester Projekt and https://www.ofri.ch/kosten/radiator-montieren</t>
   </si>
   <si>
     <r>
@@ -260,11 +254,14 @@
     </r>
   </si>
   <si>
-    <t>T. Gürber, D. Sigrist, WWF Heizungs-spreadsheet, Heizkostenrechner https://erneuerbarheizen.ch/heizkostenrechner/, energie 360°</t>
-  </si>
-  <si>
     <t>per piece, wall-mounted radiator: 430 CHF. Assumption that per 15m2 one radiator is needed
 for demontage and montage, ca. 1000 per piece CHF https://www.ofri.ch/kosten/radiator-montieren</t>
+  </si>
+  <si>
+    <t>T. Gürber (2020), D. Sigrist (2018), WWF (2019), Energieschweiz und erneuerbarheizen (2020), energie 360°</t>
+  </si>
+  <si>
+    <t>T. Gürber (2020)</t>
   </si>
 </sst>
 </file>
@@ -681,8 +678,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -779,10 +776,10 @@
         <v>60</v>
       </c>
       <c r="K2">
-        <v>2080</v>
+        <v>2110</v>
       </c>
       <c r="L2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N2" s="4">
         <v>20</v>
@@ -821,10 +818,10 @@
         <v>60</v>
       </c>
       <c r="K3">
-        <v>2080</v>
+        <v>2110</v>
       </c>
       <c r="L3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N3" s="4">
         <v>20</v>
@@ -863,10 +860,10 @@
         <v>60</v>
       </c>
       <c r="K4">
-        <v>2250</v>
+        <v>2290</v>
       </c>
       <c r="L4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N4" s="4">
         <v>20</v>
@@ -909,10 +906,10 @@
         <v>60</v>
       </c>
       <c r="K5">
-        <v>3890</v>
+        <v>3970</v>
       </c>
       <c r="L5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N5" s="8">
         <f>272.5/896.5*20+624/896.5*40</f>
@@ -957,7 +954,7 @@
         <v>810</v>
       </c>
       <c r="L6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N6" s="4">
         <v>20</v>
@@ -996,10 +993,10 @@
         <v>60</v>
       </c>
       <c r="K7" s="13">
-        <v>1190</v>
+        <v>1220</v>
       </c>
       <c r="L7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N7" s="4">
         <v>20</v>
@@ -1038,10 +1035,10 @@
         <v>60</v>
       </c>
       <c r="K8" s="13">
-        <v>1030</v>
+        <v>1040</v>
       </c>
       <c r="L8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N8" s="4">
         <v>20</v>
@@ -1083,7 +1080,7 @@
         <v>1550</v>
       </c>
       <c r="L9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N9" s="4">
         <v>20</v>
@@ -1122,10 +1119,10 @@
         <v>60</v>
       </c>
       <c r="K10" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="L10" t="s">
         <v>68</v>
-      </c>
-      <c r="L10" t="s">
-        <v>69</v>
       </c>
       <c r="N10" s="4">
         <v>30</v>
@@ -1167,7 +1164,7 @@
         <v>0</v>
       </c>
       <c r="L11" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M11" t="s">
         <v>20</v>
@@ -1211,7 +1208,7 @@
         <v>0</v>
       </c>
       <c r="L12" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M12" t="s">
         <v>20</v>
@@ -1258,10 +1255,10 @@
         <v>150</v>
       </c>
       <c r="L13" t="s">
+        <v>72</v>
+      </c>
+      <c r="M13" s="12" t="s">
         <v>65</v>
-      </c>
-      <c r="M13" s="12" t="s">
-        <v>66</v>
       </c>
       <c r="N13" s="4">
         <v>30</v>
@@ -1303,10 +1300,10 @@
         <v>95.333333333333329</v>
       </c>
       <c r="L14" t="s">
+        <v>72</v>
+      </c>
+      <c r="M14" s="12" t="s">
         <v>70</v>
-      </c>
-      <c r="M14" s="12" t="s">
-        <v>73</v>
       </c>
       <c r="N14" s="4">
         <v>30</v>
@@ -1426,10 +1423,10 @@
         <v>240</v>
       </c>
       <c r="L17" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="M17" s="11" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="N17" s="4">
         <v>30</v>

--- a/data/embodied_emissions_systems.xlsx
+++ b/data/embodied_emissions_systems.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="75">
   <si>
     <t>Category</t>
   </si>
@@ -230,9 +230,6 @@
   </si>
   <si>
     <t>included in floor heating /radiator</t>
-  </si>
-  <si>
-    <t>THIS DATA IS INTERPOLATED</t>
   </si>
   <si>
     <t>swissolar, BAPV</t>
@@ -263,11 +260,23 @@
   <si>
     <t>T. Gürber (2020)</t>
   </si>
+  <si>
+    <t>Aktualisierte Daten von Treeze</t>
+  </si>
+  <si>
+    <t>PV_cost_interpolated in dp.py</t>
+  </si>
+  <si>
+    <t>CRB</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -381,7 +390,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -396,6 +405,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -679,7 +690,7 @@
   <dimension ref="A1:O20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+      <selection activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -779,7 +790,7 @@
         <v>2110</v>
       </c>
       <c r="L2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="N2" s="4">
         <v>20</v>
@@ -821,7 +832,7 @@
         <v>2110</v>
       </c>
       <c r="L3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="N3" s="4">
         <v>20</v>
@@ -863,7 +874,7 @@
         <v>2290</v>
       </c>
       <c r="L4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="N4" s="4">
         <v>20</v>
@@ -909,7 +920,7 @@
         <v>3970</v>
       </c>
       <c r="L5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="N5" s="8">
         <f>272.5/896.5*20+624/896.5*40</f>
@@ -954,7 +965,7 @@
         <v>810</v>
       </c>
       <c r="L6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="N6" s="4">
         <v>20</v>
@@ -996,7 +1007,7 @@
         <v>1220</v>
       </c>
       <c r="L7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="N7" s="4">
         <v>20</v>
@@ -1038,7 +1049,7 @@
         <v>1040</v>
       </c>
       <c r="L8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="N8" s="4">
         <v>20</v>
@@ -1080,7 +1091,7 @@
         <v>1550</v>
       </c>
       <c r="L9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="N9" s="4">
         <v>20</v>
@@ -1096,20 +1107,22 @@
       <c r="B10" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="D10">
-        <v>2080</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="D10" s="15">
+        <f>0.0425*975*30</f>
+        <v>1243.125</v>
+      </c>
+      <c r="E10" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="F10">
-        <v>3170000</v>
-      </c>
-      <c r="G10" t="s">
-        <v>6</v>
+      <c r="F10" s="11">
+        <f>82*975*30</f>
+        <v>2398500</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>72</v>
       </c>
       <c r="H10" t="s">
         <v>14</v>
@@ -1119,10 +1132,10 @@
         <v>60</v>
       </c>
       <c r="K10" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="L10" t="s">
         <v>67</v>
-      </c>
-      <c r="L10" t="s">
-        <v>68</v>
       </c>
       <c r="N10" s="4">
         <v>30</v>
@@ -1170,10 +1183,10 @@
         <v>20</v>
       </c>
       <c r="N11" s="4">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="O11" t="s">
-        <v>40</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
@@ -1214,10 +1227,10 @@
         <v>20</v>
       </c>
       <c r="N12" s="4">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="O12" t="s">
-        <v>40</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
@@ -1255,16 +1268,16 @@
         <v>150</v>
       </c>
       <c r="L13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M13" s="12" t="s">
         <v>65</v>
       </c>
       <c r="N13" s="4">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="O13" t="s">
-        <v>40</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
@@ -1300,16 +1313,16 @@
         <v>95.333333333333329</v>
       </c>
       <c r="L14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M14" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N14" s="4">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="O14" t="s">
-        <v>40</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
@@ -1340,9 +1353,6 @@
       <c r="J15" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="M15" t="s">
-        <v>20</v>
-      </c>
       <c r="N15" s="4">
         <v>30</v>
       </c>
@@ -1378,9 +1388,6 @@
       <c r="J16" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="M16" t="s">
-        <v>20</v>
-      </c>
       <c r="N16" s="4">
         <v>30</v>
       </c>
@@ -1423,10 +1430,10 @@
         <v>240</v>
       </c>
       <c r="L17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M17" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="N17" s="4">
         <v>30</v>

--- a/data/embodied_emissions_systems.xlsx
+++ b/data/embodied_emissions_systems.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="22260" windowHeight="14220"/>
+    <workbookView xWindow="31905" yWindow="-975" windowWidth="22260" windowHeight="14220"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="79">
   <si>
     <t>Category</t>
   </si>
@@ -39,9 +39,6 @@
     <t>GSHP</t>
   </si>
   <si>
-    <t>PV</t>
-  </si>
-  <si>
     <t>Conversion</t>
   </si>
   <si>
@@ -109,9 +106,6 @@
   </si>
   <si>
     <t>floor heating</t>
-  </si>
-  <si>
-    <t>m-Si</t>
   </si>
   <si>
     <t>air</t>
@@ -230,9 +224,6 @@
   </si>
   <si>
     <t>included in floor heating /radiator</t>
-  </si>
-  <si>
-    <t>swissolar, BAPV</t>
   </si>
   <si>
     <r>
@@ -261,13 +252,34 @@
     <t>T. Gürber (2020)</t>
   </si>
   <si>
+    <t>PV_cost_interpolated in dp.py</t>
+  </si>
+  <si>
+    <t>CRB</t>
+  </si>
+  <si>
+    <t>Aktualisierte Daten von Frischknecht (2018)</t>
+  </si>
+  <si>
+    <t>IRENA and Swissolar</t>
+  </si>
+  <si>
+    <t>PV_2050</t>
+  </si>
+  <si>
+    <t>PV_2020</t>
+  </si>
+  <si>
     <t>Aktualisierte Daten von Treeze</t>
   </si>
   <si>
-    <t>PV_cost_interpolated in dp.py</t>
-  </si>
-  <si>
-    <t>CRB</t>
+    <t>swissolar, BAPV</t>
+  </si>
+  <si>
+    <t>m-Si_2050</t>
+  </si>
+  <si>
+    <t>m-Si_2020</t>
   </si>
 </sst>
 </file>
@@ -277,7 +289,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -316,6 +328,13 @@
       <u/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -390,7 +409,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -405,6 +424,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
@@ -687,21 +709,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O20"/>
+  <dimension ref="A1:O21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O22" sqref="O22"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.7109375" customWidth="1"/>
-    <col min="2" max="2" width="33.5703125" customWidth="1"/>
+    <col min="2" max="2" width="33.42578125" customWidth="1"/>
     <col min="3" max="3" width="12.42578125" customWidth="1"/>
     <col min="4" max="4" width="13.140625" customWidth="1"/>
     <col min="6" max="6" width="11.42578125" customWidth="1"/>
     <col min="7" max="7" width="11.85546875" customWidth="1"/>
-    <col min="8" max="8" width="11.5703125" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" customWidth="1"/>
     <col min="9" max="10" width="11.140625" customWidth="1"/>
     <col min="11" max="11" width="15.28515625" customWidth="1"/>
     <col min="12" max="12" width="11.140625" customWidth="1"/>
@@ -715,787 +737,783 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G1" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="H1" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>58</v>
-      </c>
       <c r="J1" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K1" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="L1" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="M1" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="M1" s="5" t="s">
-        <v>59</v>
-      </c>
       <c r="N1" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="O1" s="5" t="s">
         <v>30</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D2">
         <v>51.2</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F2">
         <v>120</v>
       </c>
       <c r="G2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I2" s="3"/>
       <c r="J2" s="10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K2">
         <v>2110</v>
       </c>
       <c r="L2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="N2" s="4">
         <v>20</v>
       </c>
       <c r="O2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D3">
         <v>51.2</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F3">
         <v>120</v>
       </c>
       <c r="G3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I3" s="3"/>
       <c r="J3" s="10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K3">
         <v>2110</v>
       </c>
       <c r="L3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="N3" s="4">
         <v>20</v>
       </c>
       <c r="O3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D4">
         <v>363.75</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F4">
         <v>682500</v>
       </c>
       <c r="G4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I4" s="3"/>
       <c r="J4" s="10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K4">
         <v>2290</v>
       </c>
       <c r="L4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="N4" s="4">
         <v>20</v>
       </c>
       <c r="O4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D5">
         <f>272.5 + 624</f>
         <v>896.5</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F5">
         <f>527500+768900</f>
         <v>1296400</v>
       </c>
       <c r="G5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="3" t="s">
-        <v>15</v>
-      </c>
       <c r="J5" s="10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K5">
         <v>3970</v>
       </c>
       <c r="L5" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="N5" s="8">
         <f>272.5/896.5*20+624/896.5*40</f>
         <v>33.920803123257109</v>
       </c>
       <c r="O5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D6" s="1">
-        <f>D14/0.07</f>
+        <f>D15/0.07</f>
         <v>77.999999999999986</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F6" s="1">
-        <f>F14/0.07</f>
+        <f>F15/0.07</f>
         <v>145714.28571428571</v>
       </c>
       <c r="G6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I6" s="3"/>
       <c r="J6" s="10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K6" s="13">
         <v>810</v>
       </c>
       <c r="L6" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="N6" s="4">
         <v>20</v>
       </c>
       <c r="O6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D7">
         <v>51.2</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F7">
         <v>120</v>
       </c>
       <c r="G7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I7" s="3"/>
       <c r="J7" s="10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K7" s="13">
         <v>1220</v>
       </c>
       <c r="L7" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="N7" s="4">
         <v>20</v>
       </c>
       <c r="O7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D8">
         <v>51.2</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F8">
         <v>120</v>
       </c>
       <c r="G8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I8" s="3"/>
       <c r="J8" s="10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K8" s="13">
         <v>1040</v>
       </c>
       <c r="L8" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="N8" s="4">
         <v>20</v>
       </c>
       <c r="O8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D9">
         <f xml:space="preserve"> 0.5* 51.2</f>
         <v>25.6</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F9">
         <v>60</v>
       </c>
       <c r="G9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J9" s="10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K9">
         <v>1550</v>
       </c>
       <c r="L9" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="N9" s="4">
         <v>20</v>
       </c>
       <c r="O9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>3</v>
+        <v>73</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>27</v>
+        <v>77</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D10" s="15">
-        <f>0.0425*975*30</f>
-        <v>1243.125</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="F10" s="11">
-        <f>82*975*30</f>
-        <v>2398500</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>72</v>
+        <v>833</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" s="16">
+        <v>1894815</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>71</v>
       </c>
       <c r="H10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="K10" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="L10" t="s">
-        <v>67</v>
-      </c>
-      <c r="N10" s="4">
-        <v>30</v>
+        <v>58</v>
+      </c>
+      <c r="K10" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="L10" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="N10" s="14">
+        <v>35</v>
       </c>
       <c r="O10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>5</v>
+        <v>74</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11">
-        <v>7.62</v>
-      </c>
-      <c r="E11" t="s">
-        <v>45</v>
-      </c>
-      <c r="F11">
-        <v>15000</v>
-      </c>
-      <c r="G11" t="s">
-        <v>6</v>
-      </c>
-      <c r="H11" t="s">
-        <v>14</v>
+        <v>78</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="18">
+        <v>1243.0999999999999</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="F11" s="11">
+        <v>2398500</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>75</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
+        <v>58</v>
+      </c>
+      <c r="K11" s="11" t="s">
+        <v>69</v>
       </c>
       <c r="L11" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="M11" t="s">
-        <v>20</v>
-      </c>
-      <c r="N11" s="4">
-        <v>60</v>
+        <v>76</v>
+      </c>
+      <c r="M11" s="11"/>
+      <c r="N11" s="17">
+        <v>30</v>
       </c>
       <c r="O11" t="s">
-        <v>74</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12">
+        <v>7.62</v>
+      </c>
+      <c r="E12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12">
+        <v>15000</v>
+      </c>
+      <c r="G12" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12">
-        <v>3.07</v>
-      </c>
-      <c r="E12" t="s">
-        <v>45</v>
-      </c>
-      <c r="F12">
-        <v>5480</v>
-      </c>
-      <c r="G12" t="s">
-        <v>6</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>18</v>
-      </c>
+      <c r="H12" t="s">
+        <v>13</v>
+      </c>
+      <c r="I12" s="3"/>
       <c r="J12" s="10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12" s="11" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="M12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N12" s="4">
         <v>60</v>
       </c>
       <c r="O12" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>9</v>
-      </c>
       <c r="D13">
-        <v>5.0599999999999996</v>
+        <v>3.07</v>
       </c>
       <c r="E13" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F13">
-        <v>4040</v>
+        <v>5480</v>
       </c>
       <c r="G13" t="s">
-        <v>6</v>
-      </c>
-      <c r="H13" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="J13" s="10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K13">
-        <v>150</v>
-      </c>
-      <c r="L13" t="s">
-        <v>71</v>
-      </c>
-      <c r="M13" s="12" t="s">
-        <v>65</v>
+        <v>0</v>
+      </c>
+      <c r="L13" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="M13" t="s">
+        <v>19</v>
       </c>
       <c r="N13" s="4">
         <v>60</v>
       </c>
       <c r="O13" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="D14">
+        <v>5.0599999999999996</v>
+      </c>
+      <c r="E14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14">
+        <v>4040</v>
+      </c>
+      <c r="G14" t="s">
+        <v>5</v>
+      </c>
+      <c r="H14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I14" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14">
+      <c r="J14" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="K14">
+        <v>150</v>
+      </c>
+      <c r="L14" t="s">
+        <v>68</v>
+      </c>
+      <c r="M14" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="N14" s="4">
+        <v>60</v>
+      </c>
+      <c r="O14" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15">
         <v>5.46</v>
       </c>
-      <c r="E14" t="s">
-        <v>45</v>
-      </c>
-      <c r="F14">
+      <c r="E15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15">
         <v>10200</v>
       </c>
-      <c r="G14" t="s">
-        <v>6</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="J14" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="K14" s="1">
+      <c r="G15" t="s">
+        <v>5</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J15" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="K15" s="1">
         <f>(430+1000)/15</f>
         <v>95.333333333333329</v>
       </c>
-      <c r="L14" t="s">
-        <v>71</v>
-      </c>
-      <c r="M14" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="N14" s="4">
+      <c r="L15" t="s">
+        <v>68</v>
+      </c>
+      <c r="M15" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="N15" s="4">
         <v>60</v>
       </c>
-      <c r="O14" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15">
-        <v>5.77</v>
-      </c>
-      <c r="E15" t="s">
-        <v>45</v>
-      </c>
-      <c r="F15">
-        <v>39600</v>
-      </c>
-      <c r="G15" t="s">
-        <v>6</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="J15" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="N15" s="4">
-        <v>30</v>
-      </c>
       <c r="O15" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D16">
-        <v>1.7</v>
+        <v>5.77</v>
       </c>
       <c r="E16" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F16">
-        <v>2940</v>
+        <v>39600</v>
       </c>
       <c r="G16" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J16" s="10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="N16" s="4">
         <v>30</v>
       </c>
       <c r="O16" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="D17">
-        <v>5.8</v>
+        <v>1.7</v>
       </c>
       <c r="E17" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F17">
-        <v>14480</v>
+        <v>2940</v>
       </c>
       <c r="G17" t="s">
-        <v>6</v>
-      </c>
-      <c r="H17" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="J17" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="K17">
-        <v>240</v>
-      </c>
-      <c r="L17" t="s">
-        <v>71</v>
-      </c>
-      <c r="M17" s="11" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="N17" s="4">
         <v>30</v>
       </c>
       <c r="O17" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="C18" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18">
+        <v>5.8</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18">
+        <v>14480</v>
+      </c>
+      <c r="G18" t="s">
+        <v>5</v>
+      </c>
+      <c r="H18" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="4"/>
-      <c r="H18" t="s">
-        <v>14</v>
-      </c>
-      <c r="I18" s="3"/>
+      <c r="I18" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J18" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="K18">
+        <v>240</v>
+      </c>
+      <c r="L18" t="s">
+        <v>68</v>
+      </c>
+      <c r="M18" s="11" t="s">
+        <v>65</v>
+      </c>
       <c r="N18" s="4">
         <v>30</v>
       </c>
       <c r="O18" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
+      <c r="A19" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="B19" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19" t="s">
-        <v>47</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-      <c r="G19" t="s">
-        <v>35</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="C19" s="4"/>
       <c r="H19" t="s">
-        <v>14</v>
-      </c>
-      <c r="I19" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="J19" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
-      <c r="L19" t="s">
-        <v>35</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="I19" s="3"/>
       <c r="N19" s="4">
         <v>30</v>
       </c>
@@ -1504,8 +1522,50 @@
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
+      <c r="A20" s="2"/>
+      <c r="B20" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20" t="s">
+        <v>45</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20" t="s">
+        <v>33</v>
+      </c>
+      <c r="H20" t="s">
+        <v>13</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J20" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20" t="s">
+        <v>33</v>
+      </c>
+      <c r="N20" s="4">
+        <v>30</v>
+      </c>
+      <c r="O20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
